--- a/data/WIRES.xlsx
+++ b/data/WIRES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUSS\Desktop\quotation-system\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51EE2C8-BC7A-4232-BEC7-AD343E26A1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20E5521-CF71-48DE-ABBD-A50E7AC93F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RR Q1 90" sheetId="12" r:id="rId1"/>
@@ -476,7 +476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -808,7 +808,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -834,7 +836,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>22.1</v>
+        <v>21.41</v>
       </c>
       <c r="C2">
         <v>57</v>
@@ -851,7 +853,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>28.93</v>
+        <v>27.96</v>
       </c>
       <c r="C3">
         <v>57</v>
@@ -868,7 +870,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>40.909999999999997</v>
+        <v>40.44</v>
       </c>
       <c r="C4">
         <v>57</v>
@@ -885,7 +887,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>67.069999999999993</v>
+        <v>65.83</v>
       </c>
       <c r="C5">
         <v>57</v>
@@ -902,7 +904,7 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>105.17</v>
+        <v>101.215</v>
       </c>
       <c r="C6">
         <v>57</v>
@@ -919,7 +921,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>156.03</v>
+        <v>150.52000000000001</v>
       </c>
       <c r="C7">
         <v>57</v>
